--- a/student_and_unemployed_applicants_merge_df.xlsx
+++ b/student_and_unemployed_applicants_merge_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="89">
   <si>
     <t>SK_ID_CURR_x</t>
   </si>
@@ -85,6 +85,9 @@
     <t>ORGANIZATION_TYPE_x</t>
   </si>
   <si>
+    <t>WEEKEND_APPR_PROCESS_START_x</t>
+  </si>
+  <si>
     <t>FRAUD_RISK_x</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>ORGANIZATION_TYPE_y</t>
   </si>
   <si>
+    <t>WEEKEND_APPR_PROCESS_START_y</t>
+  </si>
+  <si>
     <t>FRAUD_RISK_y</t>
   </si>
   <si>
@@ -229,28 +235,31 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>Business Entity Type 2</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Business Entity Type 3</t>
+  </si>
+  <si>
+    <t>Trade: type 6</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Industry: type 11</t>
+  </si>
+  <si>
     <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>Business Entity Type 2</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>Business Entity Type 3</t>
-  </si>
-  <si>
-    <t>Trade: type 6</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Industry: type 11</t>
   </si>
   <si>
     <t>Medium Risk</t>
@@ -629,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,22 +783,28 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48">
       <c r="A2">
         <v>111963</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -807,22 +822,22 @@
         <v>468000</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -834,93 +849,99 @@
         <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V2">
         <v>13</v>
       </c>
       <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
         <v>73</v>
       </c>
-      <c r="X2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2">
+      <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2">
         <v>189489</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>46</v>
       </c>
       <c r="AA2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2">
         <v>1</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>54000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>634500</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>23643</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>634500</v>
       </c>
-      <c r="AI2" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP2">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>62</v>
       </c>
       <c r="AQ2">
         <v>3</v>
       </c>
       <c r="AR2">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
       </c>
       <c r="AT2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48">
       <c r="A3">
         <v>111963</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -938,22 +959,22 @@
         <v>468000</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -965,96 +986,102 @@
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V3">
         <v>13</v>
       </c>
       <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
         <v>73</v>
       </c>
-      <c r="X3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3">
         <v>232520</v>
       </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3">
+        <v>52</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>63000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1381500</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>44163</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1381500</v>
       </c>
-      <c r="AI3" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AL3" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3">
+        <v>59</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3">
         <v>7</v>
       </c>
-      <c r="AP3">
-        <v>2</v>
-      </c>
       <c r="AQ3">
         <v>2</v>
       </c>
       <c r="AR3">
         <v>2</v>
       </c>
-      <c r="AS3" t="s">
-        <v>84</v>
+      <c r="AS3">
+        <v>2</v>
       </c>
       <c r="AT3" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:48">
       <c r="A4">
         <v>119612</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1072,19 +1099,19 @@
         <v>315000</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1096,64 +1123,64 @@
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V4">
         <v>10</v>
       </c>
       <c r="W4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4">
+      <c r="Y4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4">
         <v>343178</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
       </c>
       <c r="AA4" t="s">
         <v>48</v>
       </c>
       <c r="AB4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4">
+        <v>51</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>135000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>387000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>22234.5</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>387000</v>
       </c>
-      <c r="AI4" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL4" t="s">
         <v>57</v>
       </c>
       <c r="AM4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP4">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>62</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1161,28 +1188,34 @@
       <c r="AR4">
         <v>2</v>
       </c>
-      <c r="AS4" t="s">
-        <v>84</v>
+      <c r="AS4">
+        <v>2</v>
       </c>
       <c r="AT4" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:48">
       <c r="A5">
         <v>149408</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1200,22 +1233,22 @@
         <v>238500</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R5">
         <v>2</v>
@@ -1227,93 +1260,99 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V5">
         <v>13</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5">
         <v>190812</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>46</v>
       </c>
       <c r="AA5" t="s">
         <v>48</v>
       </c>
       <c r="AB5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5">
+        <v>51</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>45000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>328500</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>10629</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>328500</v>
       </c>
-      <c r="AI5" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK5" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM5" t="s">
         <v>60</v>
       </c>
-      <c r="AP5">
+      <c r="AN5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ5">
         <v>1</v>
       </c>
-      <c r="AQ5">
-        <v>2</v>
-      </c>
       <c r="AR5">
         <v>2</v>
       </c>
-      <c r="AS5" t="s">
-        <v>84</v>
+      <c r="AS5">
+        <v>2</v>
       </c>
       <c r="AT5" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:48">
       <c r="A6">
         <v>157780</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1331,25 +1370,25 @@
         <v>1206000</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6">
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1361,64 +1400,64 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V6">
         <v>10</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6">
         <v>343178</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>46</v>
       </c>
       <c r="AA6" t="s">
         <v>48</v>
       </c>
       <c r="AB6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6">
+        <v>51</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE6">
         <v>0</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>135000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>387000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>22234.5</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>387000</v>
       </c>
-      <c r="AI6" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL6" t="s">
         <v>57</v>
       </c>
       <c r="AM6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP6">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>62</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -1426,28 +1465,34 @@
       <c r="AR6">
         <v>2</v>
       </c>
-      <c r="AS6" t="s">
-        <v>84</v>
+      <c r="AS6">
+        <v>2</v>
       </c>
       <c r="AT6" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:48">
       <c r="A7">
         <v>170882</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1465,22 +1510,22 @@
         <v>585000</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -1492,93 +1537,99 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V7">
         <v>15</v>
       </c>
       <c r="W7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7">
         <v>411290</v>
       </c>
-      <c r="Z7" t="s">
-        <v>80</v>
-      </c>
       <c r="AA7" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="AB7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD7">
+        <v>51</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7">
         <v>0</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>135000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>450000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>22500</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>450000</v>
       </c>
-      <c r="AI7" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK7" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AL7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP7">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>63</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>1</v>
       </c>
-      <c r="AS7" t="s">
-        <v>84</v>
+      <c r="AS7">
+        <v>1</v>
       </c>
       <c r="AT7" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:48">
       <c r="A8">
         <v>181167</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1596,22 +1647,22 @@
         <v>675000</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1623,93 +1674,99 @@
         <v>2</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V8">
         <v>14</v>
       </c>
       <c r="W8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8">
+        <v>81</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8">
         <v>453794</v>
       </c>
-      <c r="Z8" t="s">
-        <v>80</v>
-      </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="AB8" t="s">
         <v>49</v>
       </c>
       <c r="AC8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD8">
+        <v>51</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE8">
         <v>0</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>112500</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>900000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>45000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>900000</v>
       </c>
-      <c r="AI8" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>2</v>
+      </c>
+      <c r="AS8">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU8" t="s">
         <v>81</v>
       </c>
-      <c r="AK8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP8">
-        <v>2</v>
-      </c>
-      <c r="AQ8">
-        <v>2</v>
-      </c>
-      <c r="AR8">
-        <v>2</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>85</v>
+      <c r="AV8" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:48">
       <c r="A9">
         <v>221688</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1727,22 +1784,22 @@
         <v>661500</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -1754,93 +1811,99 @@
         <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V9">
         <v>11</v>
       </c>
       <c r="W9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9">
         <v>104600</v>
       </c>
-      <c r="Z9" t="s">
-        <v>80</v>
-      </c>
       <c r="AA9" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="AB9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>52</v>
       </c>
       <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
         <v>135000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>270000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>13500</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>270000</v>
       </c>
-      <c r="AI9" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK9" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL9" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AM9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP9">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>62</v>
       </c>
       <c r="AQ9">
         <v>3</v>
       </c>
       <c r="AR9">
-        <v>2</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
       </c>
       <c r="AT9" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:48">
       <c r="A10">
         <v>221688</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1858,22 +1921,22 @@
         <v>661500</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -1885,96 +1948,102 @@
         <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V10">
         <v>11</v>
       </c>
       <c r="W10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10">
         <v>143454</v>
       </c>
-      <c r="Z10" t="s">
-        <v>46</v>
-      </c>
       <c r="AA10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD10">
+        <v>52</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE10">
         <v>0</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>31500</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>585000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>26892</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>585000</v>
       </c>
-      <c r="AI10" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL10" t="s">
         <v>57</v>
       </c>
       <c r="AM10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN10">
+        <v>59</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10">
         <v>4</v>
       </c>
-      <c r="AP10">
-        <v>2</v>
-      </c>
       <c r="AQ10">
         <v>2</v>
       </c>
       <c r="AR10">
         <v>2</v>
       </c>
-      <c r="AS10" t="s">
-        <v>84</v>
+      <c r="AS10">
+        <v>2</v>
       </c>
       <c r="AT10" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:48">
       <c r="A11">
         <v>316731</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1992,25 +2061,25 @@
         <v>450000</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11">
         <v>7</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -2022,93 +2091,99 @@
         <v>2</v>
       </c>
       <c r="U11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V11">
         <v>13</v>
       </c>
       <c r="W11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z11">
         <v>190812</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>46</v>
       </c>
       <c r="AA11" t="s">
         <v>48</v>
       </c>
       <c r="AB11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD11">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE11">
         <v>0</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>45000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>328500</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>10629</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>328500</v>
       </c>
-      <c r="AI11" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK11" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM11" t="s">
         <v>60</v>
       </c>
-      <c r="AP11">
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ11">
         <v>1</v>
       </c>
-      <c r="AQ11">
-        <v>2</v>
-      </c>
       <c r="AR11">
         <v>2</v>
       </c>
-      <c r="AS11" t="s">
-        <v>84</v>
+      <c r="AS11">
+        <v>2</v>
       </c>
       <c r="AT11" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:48">
       <c r="A12">
         <v>405252</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2126,16 +2201,16 @@
         <v>648000</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R12">
         <v>4</v>
@@ -2147,22 +2222,22 @@
         <v>2</v>
       </c>
       <c r="U12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V12">
         <v>12</v>
       </c>
       <c r="W12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z12">
         <v>283948</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>46</v>
       </c>
       <c r="AA12" t="s">
         <v>48</v>
@@ -2171,55 +2246,61 @@
         <v>50</v>
       </c>
       <c r="AC12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD12">
+        <v>52</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE12">
         <v>0</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>90000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1804500</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>51538.5</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1804500</v>
       </c>
-      <c r="AI12" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AK12" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s">
         <v>57</v>
       </c>
       <c r="AM12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN12">
+        <v>59</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO12">
         <v>64</v>
       </c>
-      <c r="AP12">
-        <v>2</v>
-      </c>
       <c r="AQ12">
         <v>2</v>
       </c>
       <c r="AR12">
         <v>2</v>
       </c>
-      <c r="AS12" t="s">
-        <v>84</v>
+      <c r="AS12">
+        <v>2</v>
       </c>
       <c r="AT12" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/student_and_unemployed_applicants_merge_df.xlsx
+++ b/student_and_unemployed_applicants_merge_df.xlsx
@@ -235,7 +235,7 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>-</t>
   </si>
   <si>
     <t>TUESDAY</t>

--- a/student_and_unemployed_applicants_merge_df.xlsx
+++ b/student_and_unemployed_applicants_merge_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="95">
   <si>
     <t>SK_ID_CURR_x</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
   </si>
   <si>
     <t>Business Entity Type 2</t>
@@ -851,17 +869,17 @@
       <c r="U2" t="s">
         <v>71</v>
       </c>
-      <c r="V2">
-        <v>13</v>
+      <c r="V2" t="s">
+        <v>75</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s">
         <v>73</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z2">
         <v>189489</v>
@@ -897,7 +915,7 @@
         <v>53</v>
       </c>
       <c r="AK2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL2" t="s">
         <v>58</v>
@@ -918,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="AT2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU2" t="s">
         <v>73</v>
       </c>
       <c r="AV2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:48">
@@ -988,17 +1006,17 @@
       <c r="U3" t="s">
         <v>71</v>
       </c>
-      <c r="V3">
-        <v>13</v>
+      <c r="V3" t="s">
+        <v>75</v>
       </c>
       <c r="W3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s">
         <v>73</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z3">
         <v>232520</v>
@@ -1034,10 +1052,10 @@
         <v>53</v>
       </c>
       <c r="AK3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AM3" t="s">
         <v>59</v>
@@ -1058,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="AT3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU3" t="s">
         <v>73</v>
       </c>
       <c r="AV3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:48">
@@ -1125,17 +1143,17 @@
       <c r="U4" t="s">
         <v>71</v>
       </c>
-      <c r="V4">
-        <v>10</v>
+      <c r="V4" t="s">
+        <v>76</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s">
         <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z4">
         <v>343178</v>
@@ -1171,7 +1189,7 @@
         <v>53</v>
       </c>
       <c r="AK4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL4" t="s">
         <v>57</v>
@@ -1192,13 +1210,13 @@
         <v>2</v>
       </c>
       <c r="AT4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU4" t="s">
         <v>73</v>
       </c>
       <c r="AV4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:48">
@@ -1262,17 +1280,17 @@
       <c r="U5" t="s">
         <v>72</v>
       </c>
-      <c r="V5">
-        <v>13</v>
+      <c r="V5" t="s">
+        <v>75</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
         <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z5">
         <v>190812</v>
@@ -1308,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="AK5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="s">
         <v>57</v>
@@ -1329,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="AT5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU5" t="s">
         <v>73</v>
       </c>
       <c r="AV5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:48">
@@ -1402,17 +1420,17 @@
       <c r="U6" t="s">
         <v>71</v>
       </c>
-      <c r="V6">
-        <v>10</v>
+      <c r="V6" t="s">
+        <v>76</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
         <v>73</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z6">
         <v>343178</v>
@@ -1448,7 +1466,7 @@
         <v>53</v>
       </c>
       <c r="AK6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="s">
         <v>57</v>
@@ -1469,13 +1487,13 @@
         <v>2</v>
       </c>
       <c r="AT6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU6" t="s">
         <v>73</v>
       </c>
       <c r="AV6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:48">
@@ -1539,23 +1557,23 @@
       <c r="U7" t="s">
         <v>71</v>
       </c>
-      <c r="V7">
-        <v>15</v>
+      <c r="V7" t="s">
+        <v>77</v>
       </c>
       <c r="W7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
         <v>73</v>
       </c>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z7">
         <v>411290</v>
       </c>
       <c r="AA7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB7" t="s">
         <v>50</v>
@@ -1585,7 +1603,7 @@
         <v>53</v>
       </c>
       <c r="AK7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s">
         <v>58</v>
@@ -1606,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="AT7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU7" t="s">
         <v>73</v>
       </c>
       <c r="AV7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:48">
@@ -1676,23 +1694,23 @@
       <c r="U8" t="s">
         <v>73</v>
       </c>
-      <c r="V8">
-        <v>14</v>
+      <c r="V8" t="s">
+        <v>78</v>
       </c>
       <c r="W8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z8">
         <v>453794</v>
       </c>
       <c r="AA8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB8" t="s">
         <v>49</v>
@@ -1722,7 +1740,7 @@
         <v>53</v>
       </c>
       <c r="AK8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s">
         <v>58</v>
@@ -1743,13 +1761,13 @@
         <v>2</v>
       </c>
       <c r="AT8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU8" t="s">
         <v>87</v>
       </c>
-      <c r="AU8" t="s">
-        <v>81</v>
-      </c>
       <c r="AV8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -1813,23 +1831,23 @@
       <c r="U9" t="s">
         <v>71</v>
       </c>
-      <c r="V9">
-        <v>11</v>
+      <c r="V9" t="s">
+        <v>79</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X9" t="s">
         <v>73</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z9">
         <v>104600</v>
       </c>
       <c r="AA9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB9" t="s">
         <v>50</v>
@@ -1859,13 +1877,13 @@
         <v>53</v>
       </c>
       <c r="AK9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="s">
         <v>57</v>
       </c>
       <c r="AM9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s">
         <v>62</v>
@@ -1880,13 +1898,13 @@
         <v>2</v>
       </c>
       <c r="AT9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU9" t="s">
         <v>73</v>
       </c>
       <c r="AV9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:48">
@@ -1950,17 +1968,17 @@
       <c r="U10" t="s">
         <v>71</v>
       </c>
-      <c r="V10">
-        <v>11</v>
+      <c r="V10" t="s">
+        <v>79</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s">
         <v>73</v>
       </c>
       <c r="Y10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z10">
         <v>143454</v>
@@ -1996,7 +2014,7 @@
         <v>53</v>
       </c>
       <c r="AK10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL10" t="s">
         <v>57</v>
@@ -2020,13 +2038,13 @@
         <v>2</v>
       </c>
       <c r="AT10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU10" t="s">
         <v>73</v>
       </c>
       <c r="AV10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:48">
@@ -2093,17 +2111,17 @@
       <c r="U11" t="s">
         <v>72</v>
       </c>
-      <c r="V11">
-        <v>13</v>
+      <c r="V11" t="s">
+        <v>75</v>
       </c>
       <c r="W11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s">
         <v>73</v>
       </c>
       <c r="Y11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z11">
         <v>190812</v>
@@ -2139,7 +2157,7 @@
         <v>53</v>
       </c>
       <c r="AK11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL11" t="s">
         <v>57</v>
@@ -2160,13 +2178,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU11" t="s">
         <v>73</v>
       </c>
       <c r="AV11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:48">
@@ -2224,17 +2242,17 @@
       <c r="U12" t="s">
         <v>74</v>
       </c>
-      <c r="V12">
-        <v>12</v>
+      <c r="V12" t="s">
+        <v>80</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X12" t="s">
         <v>73</v>
       </c>
       <c r="Y12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z12">
         <v>283948</v>
@@ -2270,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="AK12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AL12" t="s">
         <v>57</v>
@@ -2294,13 +2312,13 @@
         <v>2</v>
       </c>
       <c r="AT12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU12" t="s">
         <v>73</v>
       </c>
       <c r="AV12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
